--- a/jpcore-r4/feature/swg3-Practitionerの麻薬施用者番号をまとめる/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg3-Practitionerの麻薬施用者番号をまとめる/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-30T10:59:46+00:00</t>
+    <t>2022-08-30T12:36:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-Practitionerの麻薬施用者番号をまとめる/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg3-Practitionerの麻薬施用者番号をまとめる/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-30T12:36:38+00:00</t>
+    <t>2022-08-30T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
